--- a/excel-files/what-if-analysis.xlsx
+++ b/excel-files/what-if-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\anson\Financial-Modelling\business-analytics-excel-coursera\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDE9FF2-0063-4AF5-B610-E57E405E4A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A141F-DAED-4309-935F-19B743207A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{19E6001D-8DD4-4716-84F2-6174F44DC44E}"/>
   </bookViews>
@@ -99,8 +99,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -181,7 +181,7 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -193,11 +193,11 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -299,7 +299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-IN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1505,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5204C4-3437-4FEB-B6E9-88BE61578301}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
